--- a/问题记录/《项目问题记录表》-南京实施部-杨磊.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-杨磊.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
   </si>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>需要在排队等位APP上系统设置里面的网络取号开关，关闭在开启，商户中心上的远程取号临时开关状态才会开启。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨磊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +488,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -533,10 +541,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="26.25" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6"/>

--- a/问题记录/《项目问题记录表》-南京实施部-杨磊.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-杨磊.xlsx
@@ -55,7 +55,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>暂无</t>
+    <t>暂无本周没遇到</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/问题记录/《项目问题记录表》-南京实施部-杨磊.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-杨磊.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>日期</t>
   </si>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -551,10 +551,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6"/>

--- a/问题记录/《项目问题记录表》-南京实施部-杨磊.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-杨磊.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>日期</t>
   </si>
@@ -56,6 +56,19 @@
   </si>
   <si>
     <t>暂无本周没遇到</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨磊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改打印模板后标签打印机不出单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在添加标签打印机时候直接把打印机调成80，如果调成58的在不开启自定义模板
+的情况下是可以出单，</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +501,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -561,11 +574,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="26.25" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6"/>
